--- a/examples/output_data.xlsx
+++ b/examples/output_data.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Stars form from clouds of gas and dust in space. When parts of these clouds collapse under their own gravity, they heat up and create a dense core. As the core gets hotter and denser, nuclear fusion begins, turning hydrogen into helium and releasing energy, which makes the star shine.</t>
+          <t>The formation of stars begins in a cloud of gas and dust in space. Over time, gravity pulls the gas and dust together, causing it to clump and become denser. As the material gathers, it heats up and forms a protostar. When the temperature and pressure in the core become high enough, nuclear fusion starts, and the protostar becomes a main-sequence star, shining brightly.</t>
         </is>
       </c>
     </row>
